--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Order" sheetId="1" r:id="rId1"/>
+    <sheet name="Account" sheetId="2" r:id="rId2"/>
+    <sheet name="Contacts" sheetId="3" r:id="rId3"/>
+    <sheet name="Opportunitias" sheetId="4" r:id="rId4"/>
+    <sheet name="Leads" sheetId="5" r:id="rId5"/>
+    <sheet name="Contracts" sheetId="6" r:id="rId6"/>
+    <sheet name="Campaigns" sheetId="7" r:id="rId7"/>
+    <sheet name="Cases" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -344,7 +349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -368,7 +373,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,27 @@
     <sheet name="Contracts" sheetId="6" r:id="rId6"/>
     <sheet name="Campaigns" sheetId="7" r:id="rId7"/>
     <sheet name="Cases" sheetId="8" r:id="rId8"/>
+    <sheet name="Login" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>rpatestuser30@yopmail.com</t>
+  </si>
+  <si>
+    <t>Cloud_123</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -443,4 +461,39 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -30,23 +30,30 @@
     <t>Password</t>
   </si>
   <si>
-    <t>rpatestuser30@yopmail.com</t>
+    <t>Cloud_123</t>
   </si>
   <si>
-    <t>Cloud_123</t>
+    <t>rpatestuser29@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,13 +73,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,7 +481,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -481,8 +494,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -490,10 +503,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -34,6 +34,36 @@
   </si>
   <si>
     <t>rpatestuser29@yopmail.com</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Working - Contacted</t>
+  </si>
+  <si>
+    <t>IDC</t>
+  </si>
+  <si>
+    <t>Sourabh</t>
+  </si>
+  <si>
+    <t>Chakroborty</t>
+  </si>
+  <si>
+    <t>iDeliver Software</t>
   </si>
 </sst>
 </file>
@@ -428,12 +458,59 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -480,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Cases" sheetId="8" r:id="rId8"/>
     <sheet name="Login" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Username</t>
   </si>
@@ -64,6 +64,72 @@
   </si>
   <si>
     <t>iDeliver Software</t>
+  </si>
+  <si>
+    <t>rpatestuser32@yopmail.com</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>CustomerSigned</t>
+  </si>
+  <si>
+    <t>ABC Company</t>
+  </si>
+  <si>
+    <t>CustomerTitle</t>
+  </si>
+  <si>
+    <t>New Contract</t>
+  </si>
+  <si>
+    <t>PriceBook</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>ContractMonth</t>
+  </si>
+  <si>
+    <t>OwnerExpirationNotice</t>
+  </si>
+  <si>
+    <t>120 Days</t>
+  </si>
+  <si>
+    <t>CompanySigned</t>
+  </si>
+  <si>
+    <t>Chris Carpenter</t>
+  </si>
+  <si>
+    <t>BillingStreet</t>
+  </si>
+  <si>
+    <t>Uslapur</t>
+  </si>
+  <si>
+    <t>BillingState</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>BillingCountry</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>BillingDescription</t>
+  </si>
+  <si>
+    <t>This is contract</t>
   </si>
 </sst>
 </file>
@@ -422,7 +488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -460,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -517,12 +585,126 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -558,7 +740,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="Contracts" sheetId="6" r:id="rId6"/>
     <sheet name="Campaigns" sheetId="7" r:id="rId7"/>
     <sheet name="Cases" sheetId="8" r:id="rId8"/>
-    <sheet name="Login" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -33,9 +32,6 @@
     <t>Cloud_123</t>
   </si>
   <si>
-    <t>rpatestuser29@yopmail.com</t>
-  </si>
-  <si>
     <t>Fname</t>
   </si>
   <si>
@@ -64,6 +60,9 @@
   </si>
   <si>
     <t>iDeliver Software</t>
+  </si>
+  <si>
+    <t>rpatestuser30@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -458,10 +457,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -472,107 +471,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -581,6 +483,46 @@
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -589,4 +531,42 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>rpatestuser30@yopmail.com</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Expected_rev</t>
+  </si>
+  <si>
+    <t>Budget_cost</t>
   </si>
 </sst>
 </file>
@@ -547,21 +556,51 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Cloud_123</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Fname</t>
   </si>
@@ -60,9 +51,6 @@
   </si>
   <si>
     <t>iDeliver Software</t>
-  </si>
-  <si>
-    <t>rpatestuser30@yopmail.com</t>
   </si>
   <si>
     <t>Name</t>
@@ -78,20 +66,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,19 +92,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,7 +441,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -478,66 +453,47 @@
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -558,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -569,15 +525,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -585,7 +541,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>500</v>
@@ -600,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -556,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Campaigns" sheetId="7" r:id="rId7"/>
     <sheet name="Cases" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,43 +453,43 @@
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
@@ -16,12 +16,12 @@
     <sheet name="Campaigns" sheetId="7" r:id="rId7"/>
     <sheet name="Cases" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Fname</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Budget_cost</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -512,15 +515,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -547,6 +551,14 @@
         <v>500</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Contracts" sheetId="6" r:id="rId6"/>
     <sheet name="Campaigns" sheetId="7" r:id="rId7"/>
     <sheet name="Cases" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -446,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -576,4 +577,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Cases" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Fname</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>CustomerTitle</t>
+  </si>
+  <si>
+    <t>NewContract</t>
   </si>
 </sst>
 </file>
@@ -504,12 +516,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -583,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Fname</t>
   </si>
@@ -76,6 +76,48 @@
   </si>
   <si>
     <t>NewContract</t>
+  </si>
+  <si>
+    <t>PriceBook</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>ContractMonth</t>
+  </si>
+  <si>
+    <t>OwnerExpiration</t>
+  </si>
+  <si>
+    <t>120 Days</t>
+  </si>
+  <si>
+    <t>CompanySigned</t>
+  </si>
+  <si>
+    <t>DescriptionArea</t>
+  </si>
+  <si>
+    <t>This is contract</t>
+  </si>
+  <si>
+    <t>Chris Carpenter</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>SalesForce</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>AccountDescription</t>
+  </si>
+  <si>
+    <t>Create Account Name</t>
   </si>
 </sst>
 </file>
@@ -419,12 +461,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -516,10 +589,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -544,6 +617,46 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -102,9 +102,6 @@
     <t>This is contract</t>
   </si>
   <si>
-    <t>Chris Carpenter</t>
-  </si>
-  <si>
     <t>AccountName</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Create Account Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelli Brackenridge </t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -475,15 +475,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>1234567890</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +592,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,7 +646,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Cases" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -463,14 +463,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -591,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Fname</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t xml:space="preserve">Shelli Brackenridge </t>
+  </si>
+  <si>
+    <t>ContractNumber</t>
+  </si>
+  <si>
+    <t>OrderDescription</t>
+  </si>
+  <si>
+    <t>Order is generated</t>
   </si>
 </sst>
 </file>
@@ -449,12 +458,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -463,7 +503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -589,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
     <sheet name="Account" sheetId="2" r:id="rId2"/>
-    <sheet name="Contacts" sheetId="3" r:id="rId3"/>
+    <sheet name="Product" sheetId="3" r:id="rId3"/>
     <sheet name="Opportunitias" sheetId="4" r:id="rId4"/>
     <sheet name="Leads" sheetId="5" r:id="rId5"/>
     <sheet name="Contracts" sheetId="6" r:id="rId6"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Fname</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Order is generated</t>
+  </si>
+  <si>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>LTE-1254</t>
   </si>
 </sst>
 </file>
@@ -460,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -544,14 +550,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Fname</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>LTE-1254</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -550,10 +556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -567,6 +573,22 @@
       </c>
       <c r="B1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Fname</t>
   </si>
@@ -139,19 +139,38 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>Product_Name_1</t>
+  </si>
+  <si>
+    <t>GenWatt Diesel 1000kW</t>
+  </si>
+  <si>
+    <t>00000114</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,13 +190,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -506,7 +531,18 @@
         <v>34</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://na136.salesforce.com/8014T000000GsFH"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -556,15 +592,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -589,6 +626,14 @@
       </c>
       <c r="B3">
         <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -2,27 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Order" sheetId="1" r:id="rId1"/>
-    <sheet name="Account" sheetId="2" r:id="rId2"/>
-    <sheet name="Product" sheetId="3" r:id="rId3"/>
-    <sheet name="Opportunitias" sheetId="4" r:id="rId4"/>
-    <sheet name="Leads" sheetId="5" r:id="rId5"/>
-    <sheet name="Contracts" sheetId="6" r:id="rId6"/>
-    <sheet name="Campaigns" sheetId="7" r:id="rId7"/>
-    <sheet name="Cases" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="Order" r:id="rId1" sheetId="1"/>
+    <sheet name="Account" r:id="rId2" sheetId="2"/>
+    <sheet name="Product" r:id="rId3" sheetId="3"/>
+    <sheet name="Opportunitias" r:id="rId4" sheetId="4"/>
+    <sheet name="Leads" r:id="rId5" sheetId="5"/>
+    <sheet name="Contracts" r:id="rId6" sheetId="6"/>
+    <sheet name="Campaigns" r:id="rId7" sheetId="7"/>
+    <sheet name="Cases" r:id="rId8" sheetId="8"/>
+    <sheet name="Sheet1" r:id="rId9" sheetId="9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Fname</t>
   </si>
@@ -151,12 +151,16 @@
   </si>
   <si>
     <t>00000114</t>
+  </si>
+  <si>
+    <t>00000119</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -191,22 +195,22 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -215,10 +219,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -374,7 +378,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -383,13 +387,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -399,7 +403,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -408,7 +412,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -417,7 +421,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -427,12 +431,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -463,7 +467,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -482,7 +486,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -495,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -503,8 +507,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -531,25 +535,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
+      <c r="B4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://na136.salesforce.com/8014T000000GsFH"/>
+    <hyperlink display="https://na136.salesforce.com/8014T000000GsFH" r:id="rId1" ref="B4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B2"/>
@@ -557,8 +561,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -586,13 +590,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -600,8 +604,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -637,7 +641,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -649,13 +653,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -663,8 +667,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -708,13 +712,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -722,8 +726,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.5703125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -783,13 +787,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -797,8 +801,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -834,7 +838,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -848,7 +852,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -860,6 +864,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Fname</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>00000119</t>
+  </si>
+  <si>
+    <t>00000120</t>
   </si>
 </sst>
 </file>
@@ -507,8 +510,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -540,7 +543,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -561,8 +564,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -604,8 +607,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.5703125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -667,8 +670,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.28515625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -726,8 +729,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.5703125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -801,8 +804,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Fname</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>00000120</t>
+  </si>
+  <si>
+    <t>00000112</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Fname</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>00000112</t>
+  </si>
+  <si>
+    <t>00000115</t>
+  </si>
+  <si>
+    <t>00000124</t>
+  </si>
+  <si>
+    <t>00000125</t>
   </si>
 </sst>
 </file>
@@ -546,7 +555,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Fname</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>00000125</t>
+  </si>
+  <si>
+    <t>00000121</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Fname</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>00000121</t>
+  </si>
+  <si>
+    <t>00000122</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Fname</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>00000122</t>
+  </si>
+  <si>
+    <t>00000116</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Fname</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>00000116</t>
+  </si>
+  <si>
+    <t>00000117</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="5" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="Order" r:id="rId1" sheetId="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Fname</t>
   </si>
@@ -150,37 +150,10 @@
     <t>GenWatt Diesel 1000kW</t>
   </si>
   <si>
-    <t>00000114</t>
-  </si>
-  <si>
     <t>00000119</t>
   </si>
   <si>
-    <t>00000120</t>
-  </si>
-  <si>
-    <t>00000112</t>
-  </si>
-  <si>
-    <t>00000115</t>
-  </si>
-  <si>
-    <t>00000124</t>
-  </si>
-  <si>
-    <t>00000125</t>
-  </si>
-  <si>
-    <t>00000121</t>
-  </si>
-  <si>
-    <t>00000122</t>
-  </si>
-  <si>
-    <t>00000116</t>
-  </si>
-  <si>
-    <t>00000117</t>
+    <t>00000123</t>
   </si>
 </sst>
 </file>
@@ -188,20 +161,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,19 +187,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+  <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -528,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -567,7 +527,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -747,9 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/SalesForce/src/com/SaleForce/data/Data.xlsx
+++ b/SalesForce/src/com/SaleForce/data/Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Fname</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>00000123</t>
+  </si>
+  <si>
+    <t>00000124</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
